--- a/documents/digital/表逻辑及处理流程.xlsx
+++ b/documents/digital/表逻辑及处理流程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="800" windowWidth="16960" windowHeight="12200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6320" yWindow="960" windowWidth="16960" windowHeight="12200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表对应关系" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>数字化表</t>
     <rPh sb="0" eb="1">
@@ -37,10 +37,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>oms_region</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <rPh sb="0" eb="1">
       <t>shu'm</t>
@@ -232,10 +228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合同品牌系列中间表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_CONBS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -283,6 +275,47 @@
   </si>
   <si>
     <t xml:space="preserve">tb_pubgm </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务计划</t>
+    <rPh sb="0" eb="1">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性导入</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ci'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性导入</t>
+    <rPh sb="0" eb="1">
+      <t>yi'ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dao'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同品牌系列中间表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oms_region</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -351,13 +384,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,187 +672,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -826,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -837,57 +911,57 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/documents/digital/表逻辑及处理流程.xlsx
+++ b/documents/digital/表逻辑及处理流程.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="960" windowWidth="16960" windowHeight="12200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="表对应关系" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>oms_market_info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_PUBCB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -316,6 +312,10 @@
   </si>
   <si>
     <t>oms_region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oms_market_info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +675,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
@@ -719,10 +719,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -736,155 +736,155 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -911,57 +911,57 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
